--- a/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Gurkeerat Singh Mann.xlsx
@@ -439,107 +439,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 25 2020</v>
+        <v xml:space="preserve"> Oct 31 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>Gurkeerat Singh Mann</v>
       </c>
       <c r="G2" t="str">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H2" t="str">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="str">
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>100.00</v>
+        <v>62.50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 28 2020</v>
+        <v xml:space="preserve"> Oct 25 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F3" t="str">
         <v>Gurkeerat Singh Mann</v>
       </c>
       <c r="G3" t="str">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H3" t="str">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="str">
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>127.27</v>
+        <v>100.00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 31 2020</v>
+        <v xml:space="preserve"> Oct 28 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C4" t="str">
-        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Royal Challengers Bangalore</v>
       </c>
       <c r="E4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="F4" t="str">
         <v>Gurkeerat Singh Mann</v>
       </c>
       <c r="G4" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="str">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I4" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="str">
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>62.50</v>
+        <v>127.27</v>
       </c>
     </row>
   </sheetData>
